--- a/statistics/HistoricalDistanceData/historical_distance/Q2120749-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q2120749-en.xlsx
@@ -31,39 +31,39 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Shooting fuels debate over safety of Prozac for teens</t>
+  </si>
+  <si>
     <t>Red Lake Reservation Readies Burial Rituals</t>
   </si>
   <si>
     <t>Everyday Hero: Jeff May</t>
   </si>
   <si>
-    <t>Shooting fuels debate over safety of Prozac for teens</t>
+    <t>Tribe Buries 3 on a Long Road to Healing</t>
   </si>
   <si>
     <t>Juggalos take issue with label as a gang | Modesto Bee</t>
   </si>
   <si>
-    <t>Tribe Buries 3 on a Long Road to Healing</t>
-  </si>
-  <si>
     <t>Rodgers Law Office</t>
   </si>
   <si>
+    <t>2005-03-25T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2005-03-24T00:00:00UTC</t>
   </si>
   <si>
     <t>2005-09-12T00:00:00UTC</t>
   </si>
   <si>
-    <t>2005-03-25T00:00:00UTC</t>
+    <t>2005-03-27T00:00:00UTC</t>
   </si>
   <si>
     <t>2009-07-04T23:34:00UTC</t>
   </si>
   <si>
-    <t>2005-03-27T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -76,19 +76,19 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://news.minnesota.publicradio.org/features/2005/03/25_helmsm_prozacfolo/</t>
+  </si>
+  <si>
     <t>http://articles.latimes.com/2005/mar/24/nation/na-shooting24</t>
   </si>
   <si>
     <t>http://www.rd.com/content/everyday-hero-jeff-may/</t>
   </si>
   <si>
-    <t>http://news.minnesota.publicradio.org/features/2005/03/25_helmsm_prozacfolo/</t>
+    <t>https://www.nytimes.com/2005/03/27/us/tribe-buries-3-on-a-long-road-to-healing.html</t>
   </si>
   <si>
     <t>https://www.modbee.com/latest-news/article3120766.html</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2005/03/27/us/tribe-buries-3-on-a-long-road-to-healing.html</t>
   </si>
   <si>
     <t>https://www.mninjurylaw.com/html/recent-client-settlements/Judge-signs-1-million-order-for-Red-Lake-school-shooting-victims-families.html</t>
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -510,10 +510,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -527,10 +527,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -544,10 +544,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1566</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>1566</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
